--- a/spectra/notebooks/logbooks/auxtellogbook_2021_v1.2.xlsx
+++ b/spectra/notebooks/logbooks/auxtellogbook_2021_v1.2.xlsx
@@ -3771,7 +3771,7 @@
         <v>20</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44">
         <v>0</v>

--- a/spectra/notebooks/logbooks/auxtellogbook_2021_v1.2.xlsx
+++ b/spectra/notebooks/logbooks/auxtellogbook_2021_v1.2.xlsx
@@ -3883,7 +3883,7 @@
         <v>1900</v>
       </c>
       <c r="S46">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="V46" t="s">
         <v>20</v>
@@ -3948,7 +3948,7 @@
         <v>1900</v>
       </c>
       <c r="S47">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="V47" t="s">
         <v>20</v>
@@ -4013,7 +4013,7 @@
         <v>1900</v>
       </c>
       <c r="S48">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="V48" t="s">
         <v>20</v>
@@ -4078,7 +4078,7 @@
         <v>1900</v>
       </c>
       <c r="S49">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="V49" t="s">
         <v>20</v>
@@ -4146,7 +4146,7 @@
         <v>1900</v>
       </c>
       <c r="S50">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="V50" t="s">
         <v>20</v>
@@ -4214,7 +4214,7 @@
         <v>200</v>
       </c>
       <c r="S51">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="V51" t="s">
         <v>20</v>
